--- a/500all/speech_level/speeches_CHRG-114hhrg95320.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95320.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Good morning. I want to welcome everybody to our Strategic Forces Subcommittee hearing on ``Assuring National Security Space: Investing in American Industry to End Reliance on the Russian Rocket Engines.''    Before I get started, I think we all ought to take note today that this is the day of the funeral, those nine families in South Carolina. And it is a real tragedy. And I know our hearts and thoughts are with them and our condolences to their family and friends. As for today's business, we will be conducting two panels. In this first panel, we have five expert witnesses from the industry who represent current and potential providers of the space launch and rocket propulsion for the Evolved Expendable Launch Vehicle [EELV] program.    In our second panel, we have three senior government officials who have responsibilities in managing and overseeing the EELV program. And we also have an expert adviser to the government on recent launch study.    On panel one, we have Tory Bruno, president and CEO [chief executive officer] of United Launch Alliance [ULA]; Mr. Rob Meyerson, president of Blue Origin; Ms. Julie Van Kleeck, vice president, advanced space and launch programs at Aerojet Rocketdyne; Mr. Frank Culbertson, president of space systems, Orbital ATK; and Mr. Jeff Thornburg, senior director of propulsion engineering at SpaceX. I thank all of you for participating in this hearing, providing your perspective on national security. I know it takes time and energy to prepare for these things. And it is really an inconvenience to come up here, but it really helps us a lot in developing public policy.    So I really appreciate your service. This is our second hearing we recently conducted on space. We are dedicating the time to this topic because of its significance to our national security. Without an effective space launch program, we lose all the advantages we gain from space capabilities. Losing space for our warfighters is not an option. There are key policy and acquisition questions regarding the future of national security space that need to be addressed. As we have said before, I am committed to ending our reliance on Russian rocket engines for national security space launch.    I believe we must end our reliance in a manner that protects our military's assured access to space and protects the taxpayers by ensuring we don't trade one monopoly for another. The House bill accomplishes this. And I look forward to perspectives of our witnesses on the current legislation under consideration for fiscal year 2016 NDAA [National Defense Authorization Act], both the Senate version and the House version.    Because we are committed to ending our reliance on Russian engines, we must invest in the United States rocket propulsion industrial base. Investment in our industry for advanced rocket engines is overdue. While we may lead in some areas of rocket propulsion, we are clearly not leading in all. This is a painfully obvious fact considering that two of the three U.S. launch providers we have here today rely on Russian engines.    And it is not just the Russians leading the way. According to online press reports, the Chinese may be flying a new launch vehicle on a maiden flight this summer with similar technologies as the Russians, using advanced kerosene engine. The time has come to resume U.S. leadership in space. And I believe the companies before us today can help us do that.    However, I am concerned with the Air Force's recent approach in what may amount to a very expensive and risky endeavor in development of new engines, new launch vehicles, and new infrastructure. Congress has only authorized funding for the development of a rocket propulsion system. Launch vehicles are not the problem. The problem is the engine.    Thank you for being with us this morning. I look forward to your testimony and discussion of these important topics. I now recognize my friend and colleague from Tennessee, the ranking member, Mr. Cooper, for any opening statement he may have.    [The prepared statement of Mr. Rogers can be found in the Appendix on page 61.]</t>
   </si>
   <si>
     <t>400081</t>
   </si>
   <si>
-    <t>Jim Cooper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman.    I think we should approach this hearing as all others with a great deal of humility. Because I think the bottom line is if we had gotten last year's NDAA right, we wouldn't even be having this hearing. So we are correcting a self-inflicted wound here. Now, there are many self-inflicted wounds depending on how far back you want to go in history. It is a little embarrassing for America that we haven't been able to duplicate or exceed the Russian technology already, given the billions of dollars we have expended. But, actually, there are tremendous signs of hope because if we had this hearing a few years ago, that is when we really should have been worried, but we weren't smart enough to be worried back then. Now due to the investment, sometimes of our own billionaires and their love of space, there are some amazingly exciting things happening. So we are really just managing this transition.    I am confident we can do it. I wish, and I don't know whether the Chinese with their Long March missile have, in fact, bought the RD-180 or at least copied it successfully, something we apparently have been unable to do. But we don't want to just be held to the past standard. There are new generation technologies that are even more exciting, more capable. So how do we effectively transition to that. Company competition can be contentious sometimes, but it is also exciting. And sometimes it brings out the best in us no matter how painful it is. So I am glad we are having this hearing. I hope that the net result will be superior congressional performance, as well as superior company performance so that we can have assured access to space.    Thank you, Mr. Chairman. I look forward to the testimony of the witnesses.</t>
   </si>
   <si>
@@ -73,45 +67,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bruno</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bruno. Thank you.    Chairman Rogers, Ranking Member Cooper, members of the committee, I appreciate the opportunity to come here today and talk about our ongoing transformation of ULA and our journey to replace the Russian RD-180 with an all-American solution for our rocket engine. As you know, we partnered with Blue Origin last year for the development of the BE-4 engine. It is a methane engine. It was 3\\1/2\\ years into its development. And the engine portion of that effort was fully funded, allowing us to move out smartly on that activity.    Rocket science is hard. And rocket engines are the hardest part. So prudence required that I also enter into a partnership with Aerojet Rocketdyne for the AR1 rocket engine as a backup. That is a kerosene engine. It is at present 16 months behind the Blue Origin 4 engine simply because it started later. And it does require significant government funding in order to continue. Both engines are currently on plan. They are meeting their project and technical milestones. And, most importantly for our Nation, both will bring the advanced engine cycle technology that is present on the RD-180 to American shores and allow us to regain our leadership in this key technical area.    Now, as we do all of this, ULA's focus will remain laser sharp on mission success and schedule certainty. We are very proud of our perfect, on-time successful record of now 96 consecutive launches, many of which were critical national security assets. Now, in order to do all of this and avoid an assured access gap and generate the commercial funds necessary for this investment in this new engine, it is necessary that we be allowed to continue competing with the Atlas launch vehicle in order to support those missions and provide the funds that are required to do this. And so I am grateful to the House and especially for this committee and the work that you have done to correct the situation that Ranking Member Cooper referred to that will allow us to have true and proper competition going forward while we protect our own national security.    Now, as we stand here today, the industry has matured to admit a second provider for national security launch. I think that is a good thing. Competition is healthy for the taxpayer, and it is healthy for the industry. I look forward to competing in this new environment. And I am confident that when there is a fair and even playing field, that ULA can come to that field, and we can win. So I am optimistic about the future of space launch. I am inspired by the missions that I have the privilege to be entrusted with. And I look forward to your questions.    [The prepared statement of Mr. Bruno can be found in the Appendix on page 63.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Great. Thank you, Mr. Bruno.    Mr. Meyerson, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Meyerson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meyerson. Chairman Rogers, Ranking Member Cooper, and members of the subcommittee, thank you for the opportunity to speak before you today. Assured access to space is a national priority and a challenge that we must meet domestically. Blue Origin is working to deliver the American engine to maintain U.S. leadership in space and deliver critical national security capabilities.    Our partnership with ULA is fully funded and offers the fastest path to a domestic alternative to the Russian RD-180 without requiring taxpayer dollars. For more than a decade, we have steadily advanced our capabilities, flying five different rocket vehicles and developing multiple liquid rocket engines. We are spending our own money rather than taxpayer funds. And we are taking a clean sheet approach to development. As a result, we are able to outcompete the Russians, building modern American engines to serve multiple launch vehicles.    Our recent successes demonstrate that. In April of this year, our BE-3 engine performed flawlessly, powering our New Shepard space vehicle to the edge of space. The BE-3 is the first new American hydrogen engine to fly to space in more than a decade. United Launch Alliance recognized the merits of our approach when they selected our BE-4 for their Vulcan rocket. The BE-4 improves performance at a lower cost and is already more than 3 years into development. Most importantly, it is on schedule to be qualified in 2017 and ready for first flight on the Vulcan in 2019, 2 years ahead of any alternative.    Being available 2 years earlier means that there is 2 years less reliance on the Russians. As with any ox-rich [oxygen-rich] staged-combustion development, there are many technical challenges. Blue has made conscious decisions, design choices to mitigate risk. And we also have an extensive testing program underway, completing more than 60 staged-combustion tests and multiple hotfire tests on our powerpack to date. Full BE-4 engine testing is on track, on schedule to be completed or being conducted by the end of next year. And because we own our own test facilities, we can do this much faster. Blue is well capitalized, and significant private investment has been made in the facilities, equipment, and personnel needed to make the BE-4 a success.    The engine is fully funded primarily by Blue with support from ULA and does not require government funding to be successful. Instead of duplicating private efforts, the U.S. Government should focus its resources on developing the next generation of launch vehicles to meet national security requirements.    In conclusion, no new engine can simply be dropped into an existing launch vehicle. Launch vehicles have to be designed around their engines. And launch vehicle providers are the ones who are best able to decide what type of engine they need. Thank you.    And I look forward to your questions.    [The prepared statement of Mr. Meyerson can be found in the Appendix on page 79.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Meyerson.    Ms. Van Kleeck, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Van Kleeck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Van Kleeck. Chairman Rogers, Ranking Member Cooper, and members of the subcommittee, it is a privilege to be here today to discuss this important national security issue.    Simply stated, we have an engine problem on the Atlas V rocket, the Nation's best and most versatile national security launch vehicle. It uses a Russian-made RD-180 booster engine. On behalf of Aerojet Rocketdyne and its 5,000 employees nationwide, I want to thank this committee for recognizing the problem and taking action.    It continues to be our position that the fastest, least risky, and lowest cost way to fix this problem is to develop an advanced American rocket booster engine to replace the Russian RD-180. With a focused competitive acquisition based on a robust public-private partnership, we firmly believe this can be accomplished by 2019. In fiscal years 2015 and 2016, this committee took a leadership role by authorizing funding and direction for the Air Force to competitively develop this engine by 2019.    Aerojet Rocketdyne welcomes the opportunity to compete for this effort for an engine that we call the AR1. Unfortunately, more than 6 months have passed since fiscal year 2015 funds were authorized and appropriated for the engine development program that this committee mandated. And virtually no money has been spent. It appears that this engine development is being subsumed into a lengthy new launch vehicle development and subsequent launch service acquisition.    Mr. Chairman, earlier this week, you stated in the press, and I quote, ``It is not time to fund new launch vehicles or new infrastructure or rely on unproven technologies. It is time for the Pentagon to harness the power of the American industrial base and move with purpose and clarity in order to swiftly develop an American rocket propulsion system that ends our reliance on Russia as soon as possible,'' end quote.    You are exactly right. And we wholeheartedly agree with you. This is a national security imperative and should be treated as such. We have the technology to fix this problem, but we must get moving. For the focused public-private partnership, Aerojet Rocketdyne has the proven capability to develop a state-of-the-art, advanced-technology kerosene-fueled booster engine that can be certified by 2019 and be a near drop-in replacement for the Russian RD-180 on the existing Atlas V.    Aerojet Rocketdyne is able to say this with confidence based on more than 60 years of experience developing and producing launch vehicle propulsion. We have at hand these technologies as we have worked on them for the last 20 years. We have active state-of-the-art liquid rocket engine factories that are currently delivering engines supporting upcoming national security launches. We are the only domestic company that has designed, developed, produced, and flown rocket engines with thrust greater than 150,000 pounds thrust. Replacing the RD-180 requires nearly a million pounds of thrust. We have experience developing large liquid rocket engines on short timelines such as our Nation now faces. The R-68, the first-stage engine on the Delta 4 launch vehicle, which produces 700,000 pounds of thrust, was developed and produced on a 5-year schedule. AR1 will not be a copy of the RD-180. It will be a superior all-American engine and will leapfrog Russian technology. AR1 will be available to any U.S. launch booster propulsion user and configurable to any launch vehicle.    The engine's intellectual property will be retained by the government. To reiterate, our Nation has an engine problem on its premiere launch vehicle, the Atlas V. We must get rid of the Russian rocket engine. At Aerojet Rocketdyne, we believe the fastest, least risky, lowest cost manner to do this is to develop an advanced American engine to replace the RD-180 on Atlas V. This can only be done by 2019 with a focused and robust engine development program and a public-private partnership. Doing so will preserve access to space and reinvigorate the U.S. rocket propulsion industrial base.    Chairman Rogers, I want to thank you again for holding this important hearing. These are difficult issues. And each of us at the table has competing equities at stake. On behalf of Aerojet Rocketdyne, I appreciate you allowing our voice to be a part of this conversation. I look forward to your questions.    [The prepared statement of Ms. Van Kleeck can be found in the Appendix on page 86.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Ms. Van Kleeck.    Mr. Culbertson, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Culbertson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Culbertson. Good morning, Chairman Rogers, Ranking Member Cooper, and members of the subcommittee. Thank you for the opportunity to appear today. I have submitted my full statement for the record, of course. And, in the interest of time, I will briefly describe for the committee how Orbital ATK is working to support the United States national security space systems and launch vehicle programs. As a global leader in aerospace and defense technologies, Orbital ATK designs, builds, and delivers affordable space, defense, and aviation-related systems to support our Nation's warfighters, as well as civil, government, and commercial customers in the U.S. and abroad.    Our company is the leading provider of small- and medium-class space launch vehicles for civil, military, and commercial missions, having conducted more than 80 launches of such vehicles for NASA [National Aeronautics and Space Administration], the U.S. Air Force, the Missile Defense Agency, and other government, commercial, and international customers in the last 25 years, including delivering approximately 4 tons of cargo to the International Space Station.    As the committee is aware, earlier this year, the U.S. Air Force announced its EELV Phase 2 development and launch services acquisition plan. One of the key components of this plan, beginning in fiscal year 2015, centers on the rocket propulsion [system] or RPS prototype program. We believe the Air Force's acquisition plan for RPS is well conceived and, if supported by Congress, will be successful in providing new space launch capabilities that are affordable, reliable, and available by the end of this decade. As both a launch vehicle builder and a propulsion system supplier, Orbital ATK is prepared to support the Air Force's RPS prototype program. Orbital ATK has proposed both solid and liquid propulsion system developments that will support a new, all-American launch vehicle family that meets all the specified national security launch requirements, as well as civil, government, commercial, and international launch needs.    It is true that we are currently using the Russian engine on one of our launch systems. That is because it was the only one available to us at the time. We had to meet our commitment to the International Space Station and deliver cargo. Our new systems, however, will be developed in a public-private partnership with significant private investment. And we are confident that our alternatives will be ready to support first flights by early 2019. Orbital ATK is committed to supporting our Nation's assured access to space policy. Reliable, affordable, and capable space launch systems are critical to ensuring our country is prepared to maintain access to space.    Through the program outlined by the Air Force, we believe that U.S. industry is able and poised to respond to this need and will provide the best possible combinations of systems for the future of U.S. access to space. We appreciate the efforts of this committee and this Congress to correct the situation we find ourselves in propulsion development in this country.    Thank you, Mr. Chairman. I look forward to your questions.    [The prepared statement of Mr. Culbertson can be found in the Appendix on page 103.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Culbertson.    Mr. Thornburg, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Thornburg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thornburg. Mr. Chairman, Ranking Member Cooper, members of the subcommittee, thank you for the opportunity to appear before this committee. In addition to my opening statement, I have prepared a detailed written statement, which I have submitted for the record.    Mr. Chairman, this country's ability to launch rockets without using Russian engines should not be in question. America right now has talented rocket scientists, engineers, and technicians currently flying or developing innovative, American-made solutions to end U.S. reliance on Russia today. It bears noting that there has been a concerted movement towards national consolidation of the Russian space industry and a series of recent failures with Russian rockets, engines, and spacecraft.    Having worked in this business for 20 years for both government and private industry, including the Air Force and NASA's Marshall Space Flight Center, I can tell you that more is happening now in propulsion development in the United States than at any time in my career.    What is SpaceX doing? SpaceX today is the largest private producer of liquid-fuel rocket engines in the world. The first stage Merlin engine has flown 162 times to space, more than any other domestic boost-phase rocket engine flying, including the RD-180 and the RS-68 combined. In the past 13 years, SpaceX has developed nine different rocket engines. Merlin is the first new American hydrocarbon rocket engine to be successfully developed and flown in the past 40 years, all while offering the highest thrust-to-weight ratio ever achieved.    We are investing in a next-generation rocket engine called Raptor, which will be a fundamental advancement in propulsion technology and serve a number of applications for the national security space market. And we have captured more than 50 percent of the global space launch market, unilaterally increasing U.S. market share from zero percent in 2012.    With respect to a national engine program, the Air Force is undertaking a strategy to result in not just a rocket engine but in launch systems. We believe this approach will, if done correctly, benefit the entire U.S. industrial base, properly require private industry co-investment, and meet requirements for U.S. Government launches. Most importantly, the Air Force is seeking to ensure that any new system is commercially viable in order to end the current practice of costly and unsustainable government subsidization.    SpaceX stands ready and able to provide access to space for the United States with our launch systems today, as well as next-generation propulsion launch systems. In May, the Air Force certified the Falcon 9 launch system to launch the most critical national security space payloads. We appreciate the Air Force's confidence. Powered by SpaceX's Merlin rocket engine, the Falcon 9 can perform 60 percent of the DOD [Department of Defense] launch requirements to date. We are also building, qualifying, and certifying the Falcon Heavy, which also uses the Merlin rocket engine. Between these two launch vehicle systems, SpaceX will be able to execute 100 percent of the DOD launch requirements and provide heavy-lift redundancy for the first time to the government. We anticipate Falcon Heavy certification in mid-2017. At the same time, SpaceX is developing Raptor. This staged-combustion reusable system will not only be extremely powerful but also versatile, efficient, and reliable while achieving commercial viability through notable risk and cost-reducing improvements. Raptor will advance the state of the art, ensure the U.S. remains the global leader in rocket propulsion technology, and serve important applications for national security space launch.    Importantly, meaningful competition is reentering the EELV program. With this, we have seen the incumbent make promises to reduce its costs, innovate, and fund new development efforts with private capital. These are good things. Much has been made of a so-called impending capability gap in assured access to space. The only gap that currently exists relates to heavy-lift capability. This is because the Russian-powered Atlas V does not have a heavy-lift variant. Otherwise, there is no credible risk of any capability gap for national security launch now or in the future. Existing vehicles, including the Falcon 9 and the Delta 4, are both made in America, certified for DOD launch.    The Atlas will continue to fly through 2020 under current law. Even if no engine or launch vehicle is flying by the congressionally mandated deadline of 2019, there will be no gap. Soon, however, the Falcon Heavy Launch System will close the preexisting gap in heavy-lift through internal funding by SpaceX. Falcon Heavy will be certified years before any proposed national engine program is set to fly. I want to close my testimony with some constructive solutions to truly achieve assured access.    First, the United States doesn't need more Russian engines to get national security space payloads to orbit. Second, continue working to achieve assured access through genuine competition between multiple qualified providers with redundant, truly dissimilar launch vehicle systems. Third, Congress must properly structure its engine development effort to maximize smart investment. Any government money should be matched at 50 percent by private capital to ensure meaningful co-investment. And commercial viability must be a key component of the future system.    Mr. Chairman, thank you. SpaceX, with our U.S.-built Falcon 9 and Falcon Heavy, as well as our investments in homegrown, next-generation propulsion systems like Raptor, looks forward to contributing to the Nation's space enterprise. I am pleased to address any questions you may have.    [The prepared statement of Mr. Thornburg can be found in the Appendix on page 113.]</t>
   </si>
   <si>
@@ -241,9 +220,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    One of the concerns I have is when you consider the House's position and the Senate's position on RD-180s, our positions are different. And I have heard that ULA is interested in developing the Vulcan to the extent that they have a certain number of RD-180s available for the future. And if we don't have that certain number, then they are not interested in developing the Vulcan.    My question for you, Mr. Bruno, is what happens if the Senate doesn't come the direction of the House? In that case, what happens to the Vulcan and what is your backup plan?</t>
   </si>
   <si>
@@ -283,9 +259,6 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    First, Mr. Bruno, congratulations for an outstanding record of success. Jeff Bezos, founder of Blue Origin and Amazon, said, quote, ``ULA has put a satellite into orbit almost every month for the past 8 years. They are the most reliable launch provider in history. And their record of success is astonishing,'' unquote. I am proud that ULA is headquartered in Colorado. I am fully confident ULA will remain very competitive in the future. You enjoyed an exclusive contract because of your competence. But I want to ask you what exactly can Congress do to ensure that across the board we have created an environment that promotes innovation while not unfairly tipping the playing field towards or away from any potential provider.</t>
   </si>
   <si>
@@ -307,9 +280,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman, for having this very important hearing. And thank you for the timeliness of this hearing.    Mr. Thornburg, I would like to ask you about the current version of the Merlin engine that you are using. Is it the new, is the new baseline, is the full thrust Merlin engine the new baseline for the Falcon version 1.1 going forward? And does SpaceX intend to bid that system for upcoming EELV launches?</t>
   </si>
   <si>
@@ -685,9 +655,6 @@
     <t xml:space="preserve">    Mr. Rogers. I would now like to welcome the experts for our second panel. I want to thank you all for coming here today and preparing for it. We have the Honorable Katrina McFarland, Assistant Secretary of Defense for Acquisition; General John Hyten, Commander, Air Force Space Command.    And, General Hyten and Ms. McFarland, it is great to have you back to testify on this topic. We truly appreciate your opinions.    And we also look forward to hearing from Lieutenant General Sam Greaves, Commander, Air Force Space and Missile Command Center. And we also have Dr. Mike Griffin, who is representing himself today, but he was deputy chair of the SecDef's [Secretary of Defense's] RD-180 Availability Risk Mitigation Study, and he is also a former NASA Administrator.    Ms. McFarland, I will turn it over to you to start with. You are recognized for 5 minutes to summarize your opening statement.    I will tell all the witnesses, your opening statements in full will be submitted for the record. If you would just like to summarize with your time, we will get right to questions.    Ms. McFarland.STATEMENT OF HON. KATRINA G. McFARLAND, ASSISTANT SECRETARY OF </t>
   </si>
   <si>
-    <t>McFarland</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary McFarland. Thank you, Chairman Rogers, Ranking Member Cooper, and distinguished members of the committee. I appreciate the opportunity to speak and appear before this committee, particularly since you are supposed to be at recess. And I ask that my written testimony, as you state, be taken for the record.</t>
   </si>
   <si>
@@ -704,9 +671,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, General Greaves.    Dr. Griffin, you are recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Griffin</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Griffin. Thank you, Mr. Chairman.    Chairman Rogers, Ranking Member Cooper, and distinguished members of the committee, I am honored to be asked to appear before your subcommittee to testify on the matter before us today. However, before beginning any substantive discussion, I think I should note for the record that I am here as an independent witness and a private individual. I have received no consideration of any kind in connection with the topic of today's hearing from anyone. I am here on personal leave and at personal expense and do not represent any company, agency, or committee on which I have served in the past or presently serve.    So with that said, we are here to discuss the RD-180 and its replacement. The RD-180 has been used for two decades on various versions of Atlas. And without that engine or a functionally equivalent replacement, today's Atlas V launch vehicle will be grounded and with it two-thirds of our national security payloads as we presently have the manifest.    And so while I completely agree that we should not continue to be dependent upon a foreign power, much less an adversary, for any element of our national space launch capability, I do believe that the legislative action which has been taken in this regard is a bit too abrupt. It might be that we should wean ourselves of this dependence a bit more gently.    But if the Atlas is grounded, then what? Well, U.S. policy and law require two independent systems for national security space launch capability. This requirement is met, but only partially so, with the Delta 4 family. The previous panel said that payloads could be shifted from Atlas to Delta 4. That is so, but many critical payloads are not immediately interchangeable between these vehicles and would require considerable rework at considerable cost to shift from Atlas to Delta.    Moreover, the Delta is, in general, more expensive than the equivalent Atlas, and the top-end Delta performance of Delta 4 Medium is less than that of the top-end Atlas. So some Atlas payloads will not be transferable to Delta.    Finally, the Delta production limitations are such that without a massive increase in manufacturing and launch infrastructure, very limited surge capacity is even possible.    So the net effect of shifting national security space systems from Atlas to Delta, should we have to do so, will be several years of delay for the average payload and many billions of dollars of increased cost.    Now, some have said that the best forward path is to discard decades of government investment in and experience with the Atlas and develop a whole new system. This does nothing to solve today's problems. And even if it did, it is irrational to suppose that an entirely new launch vehicle can be obtained more quickly or at less cost than a new engine alone.    Others would have us believe that the U.S. Government can merely purchase launch services from among multiple competitors as if one were selecting a particular airline for a desired trip based on airfare and schedule. Purveyors of this launch-as-a-service view would have us believe that if we have an engine supply problem, the U.S. Government should stay on the sidelines while the market solves the problem.    But in reality, the U.S. national security launch architecture is a strategic capability having far more in common with other strategic assets such as fighters, bombers, aircraft carriers, and submarines than it does with airlines and cruise ships. The vagaries of the market cannot be allowed to determine whether or not critical payloads make it to space.    Accordingly, the U.S. Government must be prepared to ensure that the supply chain required to maintain this critical asset remains intact. That supply chain is currently quite fragile, because while we have been supporting the Russian rocket engine industrial base, our own has withered.    To conclude, we have an engine problem, not a rocket problem. I believe we should solve it by building a government-funded, government-owned, American equivalent to the RD-180 as quickly as we can possible do so. We should not allow the many obfuscating issues which have been raised in connection with this problem to cloud our view of what must be done.    Thank you. My full statement, I hope, will be entered for the record.    [The prepared statement of Dr. Griffin can be found in the Appendix on page 154.]</t>
@@ -1405,11 +1369,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1429,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1457,11 +1417,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1481,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1509,11 +1465,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1533,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1561,11 +1513,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1585,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1613,11 +1561,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1637,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1665,11 +1609,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1689,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1717,11 +1657,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1741,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1769,11 +1705,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1793,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1821,11 +1753,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1845,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1873,11 +1801,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1897,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1925,11 +1849,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1949,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1977,11 +1897,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2001,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2029,11 +1945,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2053,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2081,11 +1993,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2105,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2133,11 +2041,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2157,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2185,11 +2089,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2209,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2237,11 +2137,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2261,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2289,11 +2185,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2313,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2341,11 +2233,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2365,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2393,11 +2281,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2417,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2445,11 +2329,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2469,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2495,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2521,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2547,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2573,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2599,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2625,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2651,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2677,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2703,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2729,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2757,11 +2617,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2781,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2807,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2833,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2859,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2885,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2911,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2937,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>74</v>
-      </c>
-      <c r="G61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2963,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2989,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3015,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3041,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3069,11 +2905,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3093,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3119,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3145,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3171,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3197,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3225,11 +3049,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3249,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
-      </c>
-      <c r="G73" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3275,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3301,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3327,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3353,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3379,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3405,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
-      </c>
-      <c r="G79" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3431,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3457,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
         <v>96</v>
-      </c>
-      <c r="G81" t="s">
-        <v>97</v>
-      </c>
-      <c r="H81" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3483,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3509,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3535,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3561,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3587,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3613,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3641,11 +3433,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3665,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3693,11 +3481,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3717,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3745,11 +3529,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3769,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3795,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3823,11 +3601,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3847,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3875,11 +3649,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3899,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3927,11 +3697,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3951,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3979,11 +3745,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4003,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4031,11 +3793,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4055,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4083,11 +3841,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4107,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4135,11 +3889,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4159,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4187,11 +3937,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4211,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4239,11 +3985,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4263,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4291,11 +4033,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4315,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4343,11 +4081,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4367,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4395,11 +4129,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4419,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4447,11 +4177,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4471,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4499,11 +4225,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4523,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4551,11 +4273,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4575,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4603,11 +4321,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4627,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4655,11 +4369,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4679,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4707,11 +4417,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4731,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4759,11 +4465,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4783,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4811,11 +4513,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4835,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4863,11 +4561,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4887,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4915,11 +4609,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4939,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4967,11 +4657,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4991,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5019,11 +4705,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5043,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5071,11 +4753,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5095,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5123,11 +4801,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5147,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5175,11 +4849,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5199,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5227,11 +4897,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5251,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5279,11 +4945,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5303,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5331,11 +4993,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5355,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5383,11 +5041,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5407,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5435,11 +5089,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5459,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5485,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5511,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5537,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5563,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5589,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5615,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5641,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5667,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5693,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5719,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5747,11 +5377,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5771,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>74</v>
-      </c>
-      <c r="G170" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5797,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5823,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>74</v>
-      </c>
-      <c r="G172" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5849,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5875,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>74</v>
-      </c>
-      <c r="G174" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5901,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5927,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>74</v>
-      </c>
-      <c r="G176" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5953,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5979,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>74</v>
-      </c>
-      <c r="G178" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6005,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6031,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>74</v>
-      </c>
-      <c r="G180" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6059,11 +5665,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6083,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>88</v>
-      </c>
-      <c r="G182" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6109,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6135,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>88</v>
-      </c>
-      <c r="G184" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6161,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6187,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>88</v>
-      </c>
-      <c r="G186" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6213,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6239,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>88</v>
-      </c>
-      <c r="G188" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6265,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6291,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>88</v>
-      </c>
-      <c r="G190" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6317,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6343,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6369,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G193" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6397,11 +5977,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6421,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>96</v>
-      </c>
-      <c r="G195" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6447,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6473,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>96</v>
-      </c>
-      <c r="G197" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6499,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6525,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>96</v>
-      </c>
-      <c r="G199" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6551,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6577,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>96</v>
-      </c>
-      <c r="G201" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6603,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6629,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>96</v>
-      </c>
-      <c r="G203" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6657,11 +6217,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6683,11 +6241,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6707,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6735,11 +6289,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6759,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6787,11 +6337,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6813,11 +6361,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6839,11 +6385,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6863,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6891,11 +6433,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6915,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6943,11 +6481,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6969,11 +6505,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6995,11 +6529,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7019,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7047,11 +6577,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7073,11 +6601,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7099,11 +6625,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7125,11 +6649,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7151,11 +6673,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7175,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7203,11 +6721,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7227,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7255,11 +6769,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7279,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7307,11 +6817,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7333,11 +6841,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7359,11 +6865,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7385,11 +6889,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7411,11 +6913,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7435,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>14</v>
-      </c>
-      <c r="G234" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7461,13 +6959,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7487,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7513,13 +7007,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7541,11 +7033,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>12</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7565,13 +7055,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7591,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
-      </c>
-      <c r="G240" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7617,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7643,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7669,13 +7151,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7695,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7721,13 +7199,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7747,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7773,13 +7247,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7799,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>14</v>
-      </c>
-      <c r="G248" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7825,13 +7295,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7851,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>14</v>
-      </c>
-      <c r="G250" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7877,13 +7343,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7903,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G252" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7929,13 +7391,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
-      </c>
-      <c r="G253" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7955,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>14</v>
-      </c>
-      <c r="G254" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7981,13 +7439,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8007,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
-      </c>
-      <c r="G256" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8033,13 +7487,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8059,13 +7511,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>14</v>
-      </c>
-      <c r="G258" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8087,11 +7537,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8111,13 +7559,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>74</v>
-      </c>
-      <c r="G260" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8137,13 +7583,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8163,13 +7607,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>74</v>
-      </c>
-      <c r="G262" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8189,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>18</v>
-      </c>
-      <c r="G263" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8215,13 +7655,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>74</v>
-      </c>
-      <c r="G264" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8241,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>18</v>
-      </c>
-      <c r="G265" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8267,13 +7703,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>74</v>
-      </c>
-      <c r="G266" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8293,13 +7727,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>18</v>
-      </c>
-      <c r="G267" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8319,13 +7751,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>74</v>
-      </c>
-      <c r="G268" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8347,11 +7777,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8371,13 +7799,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>88</v>
-      </c>
-      <c r="G270" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8397,13 +7823,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>88</v>
-      </c>
-      <c r="G271" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8423,13 +7847,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>88</v>
-      </c>
-      <c r="G272" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8449,13 +7871,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>88</v>
-      </c>
-      <c r="G273" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8475,13 +7895,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>18</v>
-      </c>
-      <c r="G274" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8501,13 +7919,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>88</v>
-      </c>
-      <c r="G275" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8529,11 +7945,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8553,13 +7967,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>96</v>
-      </c>
-      <c r="G277" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8579,13 +7991,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>18</v>
-      </c>
-      <c r="G278" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8605,13 +8015,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>96</v>
-      </c>
-      <c r="G279" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8631,13 +8039,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>96</v>
-      </c>
-      <c r="G280" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8657,13 +8063,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>18</v>
-      </c>
-      <c r="G281" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8683,13 +8087,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>96</v>
-      </c>
-      <c r="G282" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8709,13 +8111,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>18</v>
-      </c>
-      <c r="G283" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8735,13 +8135,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>96</v>
-      </c>
-      <c r="G284" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8761,13 +8159,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>96</v>
-      </c>
-      <c r="G285" t="s">
-        <v>97</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8789,11 +8185,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8813,13 +8207,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>18</v>
-      </c>
-      <c r="G287" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8841,11 +8233,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>12</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8867,11 +8257,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8893,11 +8281,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8919,11 +8305,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8945,11 +8329,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8971,11 +8353,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8997,11 +8377,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9021,13 +8399,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>18</v>
-      </c>
-      <c r="G295" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9049,11 +8425,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>12</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9073,13 +8447,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9101,11 +8473,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9125,13 +8495,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>18</v>
-      </c>
-      <c r="G299" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9153,11 +8521,9 @@
       <c r="F300" t="s">
         <v>11</v>
       </c>
-      <c r="G300" t="s">
-        <v>12</v>
-      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9179,11 +8545,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9205,11 +8569,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>12</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9229,13 +8591,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>18</v>
-      </c>
-      <c r="G303" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9257,11 +8617,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9283,11 +8641,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9307,13 +8663,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>18</v>
-      </c>
-      <c r="G306" t="s">
-        <v>230</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9335,11 +8689,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9359,13 +8711,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>18</v>
-      </c>
-      <c r="G308" t="s">
-        <v>223</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9387,11 +8737,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>12</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9413,11 +8761,9 @@
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" t="s">
-        <v>12</v>
-      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9439,11 +8785,9 @@
       <c r="F311" t="s">
         <v>11</v>
       </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
